--- a/TAP_POM_Framework/data/TC0053.xlsx
+++ b/TAP_POM_Framework/data/TC0053.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>uname</t>
   </si>
@@ -27,19 +27,10 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>appname</t>
-  </si>
-  <si>
     <t>sys_admin@ltts.com</t>
   </si>
   <si>
     <t>Rajravi@1</t>
-  </si>
-  <si>
-    <t>Darkstone</t>
   </si>
 </sst>
 </file>
@@ -368,40 +359,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
